--- a/bin/Cartera de bonos.xlsx
+++ b/bin/Cartera de bonos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81948629-CD7C-4795-9ACC-B2CDA53CC400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF91FAA-85B3-4FC8-B761-8AC90BB59DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3740,8 +3740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BE19" sqref="BE19"/>
+    <sheetView tabSelected="1" topLeftCell="AG15" workbookViewId="0">
+      <selection activeCell="AS34" sqref="AS34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7599,7 +7599,7 @@
         <v>14.5</v>
       </c>
       <c r="AS32">
-        <f t="shared" si="28"/>
+        <f>$AS$19*EXP(-$AN$11*(AR32-$AJ$11))</f>
         <v>0.44751891796919752</v>
       </c>
       <c r="AT32">
@@ -7695,7 +7695,7 @@
         <v>15</v>
       </c>
       <c r="AS33">
-        <f t="shared" si="28"/>
+        <f>$AS$19*EXP(-$AN$11*(AR33-$AJ$11))</f>
         <v>0.44165340991999463</v>
       </c>
       <c r="AT33">
